--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -71,18 +71,6 @@
     <t>Bullet_Player_1</t>
   </si>
   <si>
-    <t>子弹类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LASER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>基础子弹进行X次攻击后销毁（穿透）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -157,6 +145,98 @@
   </si>
   <si>
     <t>Bullet_Player_2_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ULL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ULL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LERP</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞后是否销毁
+（前提是打开了碰撞）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_3_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_3_Bomb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_col_destroy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Bullet.TrackType</t>
+  </si>
+  <si>
+    <t>track_start_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪开始时间
+（前面X秒不跟踪）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,16 +641,17 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="35.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="2" customWidth="1"/>
-    <col min="8" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="23.25" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="20.125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="24.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="20.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.25" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,26 +661,35 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,32 +699,41 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -645,31 +744,37 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>100</v>
       </c>
@@ -679,122 +784,197 @@
       <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>99</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>200</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.5</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>201</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>0.2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>0.5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>99</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>202</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="E9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>0.5</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>300</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>301</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>99</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>Bullet_Player_1</t>
-  </si>
-  <si>
-    <t>基础子弹进行X次攻击后销毁（穿透）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>基础单次子弹对同一个单位的伤害间隔（秒）</t>
@@ -203,24 +199,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>碰撞后是否销毁
-（前提是打开了碰撞）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Bullet_Player_3_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Bullet_Player_3_Bomb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_col_destroy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -237,6 +220,11 @@
   <si>
     <t>跟踪开始时间
 （前面X秒不跟踪）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础子弹进行X次攻击后销毁（穿透）
+-1代表不会根据穿透与否销毁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,17 +629,18 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="35.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="24.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="20.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="26.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.25" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="24.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.25" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,34 +651,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>16</v>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -700,40 +686,37 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -744,37 +727,34 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>100</v>
       </c>
@@ -784,197 +764,179 @@
       <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="b">
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>99</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2">
-        <v>99</v>
-      </c>
       <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>200</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
       <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
         <v>0.5</v>
       </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
       <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>201</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="b">
-        <v>1</v>
+      <c r="G8" s="2">
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="2">
-        <v>0.5</v>
+        <v>99</v>
       </c>
       <c r="K8" s="2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>202</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
+      <c r="G9" s="2">
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
         <v>0.5</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>300</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="b">
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
+      <c r="G11" s="2">
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
         <v>3</v>
       </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
       <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>301</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="J12" s="2">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -621,7 +621,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,7 +833,7 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="2">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -225,6 +225,27 @@
   <si>
     <t>基础子弹进行X次攻击后销毁（穿透）
 -1代表不会根据穿透与否销毁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞后的伤害倍率
+（万分数）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_multi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>row_angle_sep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同行多个同时生成时，错开的角度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,17 +651,18 @@
     <col min="3" max="3" width="35.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.25" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="17.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="26.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.25" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,25 +679,31 @@
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -692,31 +720,37 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -736,25 +770,31 @@
         <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>100</v>
       </c>
@@ -768,23 +808,29 @@
         <v>31</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="2">
         <v>6</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>99</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>200</v>
@@ -799,20 +845,26 @@
         <v>32</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="2">
-        <v>0</v>
+      <c r="G7" s="3">
+        <v>10000</v>
       </c>
       <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.5</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
       <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>201</v>
@@ -824,25 +876,31 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>0.2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>0.5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>-1</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
       <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>202</v>
@@ -854,19 +912,25 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>0.5</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>300</v>
@@ -875,28 +939,40 @@
         <v>34</v>
       </c>
       <c r="D11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>99</v>
+      </c>
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>301</v>
@@ -911,32 +987,38 @@
         <v>32</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="2">
-        <v>0</v>
+      <c r="G12" s="3">
+        <v>10000</v>
       </c>
       <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>99</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>-1</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -83,6 +83,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>life_time</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -132,11 +136,6 @@
   </si>
   <si>
     <t>最长生存时间（秒）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否造成碰撞
-（自行开关脚本控制）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -245,7 +244,49 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>同行多个同时生成时，错开的角度</t>
+    <t>Bullet_Player_4_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_bullet_row</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续生成数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同行多个同时生成时，错开的角度
+（目前以后续生成的方式实现的，会按圆角分割）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_4_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹出生无敌时间
+（派生子弹可以用这个来无法攻击父物体）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncol_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_col</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否造成碰撞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,19 +691,20 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="35.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="17.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="26.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="30.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23.25" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="26.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="17.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.5" style="2" customWidth="1"/>
+    <col min="15" max="16" width="23.25" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,38 +714,47 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
+      <c r="J1" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -713,44 +764,53 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -761,40 +821,46 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>100</v>
       </c>
@@ -804,33 +870,36 @@
       <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>10000</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>99</v>
       </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
       <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
         <v>0.4</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>200</v>
@@ -841,30 +910,36 @@
       <c r="D7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>10000</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
       <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>0.5</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
       <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
         <v>5</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>201</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>201</v>
@@ -875,62 +950,71 @@
       <c r="D8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>10000</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
       <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>0.2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>0.5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>-1</v>
       </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>202</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="2">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>10000</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
       <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>0.5</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>300</v>
@@ -941,38 +1025,44 @@
       <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>0.3</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
+      <c r="H11" s="3">
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>2</v>
       </c>
       <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
         <v>99</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
         <v>5</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>301</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>301</v>
@@ -983,42 +1073,118 @@
       <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <v>10000</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
         <v>99</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>-1</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>400</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>99</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-3</v>
+      </c>
+      <c r="O14" s="2">
+        <v>401</v>
+      </c>
+      <c r="P14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>401</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>99</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -287,6 +287,42 @@
   </si>
   <si>
     <t>是否造成碰撞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_5_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_container</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Bullet.Container</t>
+  </si>
+  <si>
+    <t>父物体容器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORMAL</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -680,31 +716,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="35.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="17.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.5" style="2" customWidth="1"/>
-    <col min="15" max="16" width="23.25" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="17.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="32.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.5" style="2" customWidth="1"/>
+    <col min="16" max="17" width="23.25" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,46 +752,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,52 +805,55 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -821,85 +864,91 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>10000</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>6</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>99</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
       <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
         <v>0.4</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>200</v>
@@ -907,39 +956,42 @@
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
         <v>10000</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
       <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.5</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
       <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <v>5</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>201</v>
       </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>201</v>
@@ -947,41 +999,44 @@
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>10000</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
       <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <v>0.2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>0.5</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>-1</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
       <c r="N8" s="2">
         <v>0</v>
       </c>
       <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
         <v>202</v>
       </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>202</v>
@@ -989,32 +1044,35 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>10000</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
       <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>0.5</v>
       </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
       <c r="N9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>300</v>
@@ -1022,47 +1080,50 @@
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>0.3</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2</v>
+      <c r="I11" s="3">
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>2</v>
       </c>
       <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
         <v>99</v>
       </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
         <v>5</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>301</v>
       </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>301</v>
@@ -1070,39 +1131,42 @@
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
         <v>10000</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
         <v>99</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>-1</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="2">
         <v>400</v>
@@ -1110,45 +1174,48 @@
       <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>5</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>3</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>99</v>
       </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
       <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
         <v>0.2</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>-3</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>401</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2">
         <v>401</v>
@@ -1156,56 +1223,98 @@
       <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
         <v>0.2</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2000</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>5</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>3</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>99</v>
       </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
       <c r="M15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>500</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>100</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>penetrate_sep</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -323,6 +319,27 @@
   </si>
   <si>
     <t>PLAYER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_6_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>penetrate_sep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续碰撞的伤害递减
+（万分数）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>penetrate_damage_multi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -716,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,13 +752,14 @@
     <col min="11" max="11" width="16.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="32.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="30.5" style="2" customWidth="1"/>
-    <col min="16" max="17" width="23.25" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="25.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="30.5" style="2" customWidth="1"/>
+    <col min="17" max="18" width="23.25" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,22 +770,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>14</v>
@@ -776,25 +794,28 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -805,22 +826,22 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -829,31 +850,34 @@
         <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,49 +888,52 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>100</v>
       </c>
@@ -914,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>1</v>
@@ -923,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
@@ -941,14 +968,17 @@
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O5" s="2">
         <v>0.4</v>
       </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>200</v>
@@ -957,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -966,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
@@ -978,29 +1008,30 @@
       <c r="K7" s="2">
         <v>0.5</v>
       </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
         <v>5</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>201</v>
       </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>201</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>1</v>
@@ -1023,29 +1054,32 @@
       <c r="M8" s="2">
         <v>-1</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
+      <c r="N8" s="3">
+        <v>6000</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
         <v>202</v>
       </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>202</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -1062,26 +1096,26 @@
       <c r="K9" s="2">
         <v>0.5</v>
       </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>300</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>1</v>
@@ -1090,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="3">
         <v>0.3</v>
@@ -1110,35 +1144,41 @@
       <c r="M11" s="2">
         <v>1</v>
       </c>
-      <c r="N11" s="2">
-        <v>0</v>
+      <c r="N11" s="3">
+        <v>6000</v>
       </c>
       <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
         <v>5</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>301</v>
       </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>301</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
@@ -1156,35 +1196,38 @@
       <c r="M12" s="2">
         <v>-1</v>
       </c>
-      <c r="N12" s="2">
-        <v>0</v>
+      <c r="N12" s="3">
+        <v>6000</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="2">
         <v>400</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
@@ -1202,29 +1245,32 @@
       <c r="M14" s="2">
         <v>1</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O14" s="2">
         <v>0.2</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>-3</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>401</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2">
         <v>401</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>1</v>
@@ -1233,7 +1279,7 @@
         <v>0.2</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="3">
         <v>2000</v>
@@ -1250,23 +1296,26 @@
       <c r="M15" s="2">
         <v>1</v>
       </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2">
         <v>500</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>1</v>
@@ -1275,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="2">
         <v>10000</v>
@@ -1292,29 +1341,77 @@
       <c r="M17" s="2">
         <v>-1</v>
       </c>
-      <c r="N17" s="2">
-        <v>0</v>
+      <c r="N17" s="3">
+        <v>6000</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>600</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -265,11 +265,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>子弹出生无敌时间
-（派生子弹可以用这个来无法攻击父物体）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>uncol_time</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -340,6 +335,15 @@
   </si>
   <si>
     <t>penetrate_damage_multi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_7_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹出生不攻击时间
+（派生子弹可以用这个来无法攻击父物体）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -735,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,13 +774,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>35</v>
@@ -794,13 +798,13 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
@@ -826,10 +830,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -856,7 +860,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>7</v>
@@ -888,13 +892,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>29</v>
@@ -918,7 +922,7 @@
         <v>39</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>22</v>
@@ -941,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>1</v>
@@ -987,7 +991,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -1031,7 +1035,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>1</v>
@@ -1079,7 +1083,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -1115,7 +1119,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>1</v>
@@ -1169,7 +1173,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>1</v>
@@ -1218,7 +1222,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>1</v>
@@ -1270,7 +1274,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>1</v>
@@ -1312,10 +1316,10 @@
         <v>500</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>1</v>
@@ -1360,10 +1364,10 @@
         <v>600</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>1</v>
@@ -1407,6 +1411,48 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
+      <c r="B21" s="2">
+        <v>700</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2">
+        <v>4</v>
+      </c>
+      <c r="L21" s="2">
+        <v>99</v>
+      </c>
+      <c r="M21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>6000</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -112,14 +112,6 @@
   </si>
   <si>
     <t>当多个生成时的间隔像素</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续生成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>next_bullet</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -248,14 +240,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>next_bullet_row</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续生成数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>同行多个同时生成时，错开的角度
 （目前以后续生成的方式实现的，会按圆角分割）</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -344,6 +328,58 @@
   <si>
     <t>子弹出生不攻击时间
 （派生子弹可以用这个来无法攻击父物体）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_8_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLERP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_8_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_col_bullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_col_bullet_row</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续生成
+（碰撞）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续生成数量
+（碰撞）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_lifetime_bullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_lifetime_bullet_row</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续生成数量
+（时限）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续生成
+（时限）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,11 +795,11 @@
     <col min="14" max="14" width="25.75" style="2" customWidth="1"/>
     <col min="15" max="15" width="26.75" style="2" customWidth="1"/>
     <col min="16" max="16" width="30.5" style="2" customWidth="1"/>
-    <col min="17" max="18" width="23.25" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="17" max="20" width="23.25" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,22 +810,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>14</v>
@@ -798,28 +834,34 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,22 +872,22 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -860,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>7</v>
@@ -869,19 +911,25 @@
         <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,52 +940,58 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>100</v>
       </c>
@@ -945,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>1</v>
@@ -954,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
@@ -982,8 +1036,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B7" s="2">
         <v>200</v>
       </c>
@@ -991,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -1000,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
@@ -1025,17 +1081,23 @@
       <c r="R7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2">
+        <v>201</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>201</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>1</v>
@@ -1067,23 +1129,23 @@
       <c r="P8" s="2">
         <v>0</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>202</v>
       </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>202</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -1107,19 +1169,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>300</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>1</v>
@@ -1128,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3">
         <v>0.3</v>
@@ -1163,17 +1225,23 @@
       <c r="R11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="2">
+        <v>301</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>301</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>1</v>
@@ -1182,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
@@ -1210,19 +1278,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="2">
         <v>400</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>1</v>
@@ -1231,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
@@ -1265,16 +1333,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2">
         <v>401</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>1</v>
@@ -1283,7 +1351,7 @@
         <v>0.2</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="3">
         <v>2000</v>
@@ -1307,19 +1375,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2">
         <v>500</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>1</v>
@@ -1328,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I17" s="2">
         <v>10000</v>
@@ -1355,19 +1423,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2">
         <v>600</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>1</v>
@@ -1376,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H19" s="2">
         <v>0.3</v>
@@ -1406,19 +1474,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="2">
         <v>700</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>1</v>
@@ -1427,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I21" s="2">
         <v>10000</v>
@@ -1454,10 +1522,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2">
+        <v>800</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="2">
+        <v>7</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>99</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>6000</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>801</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>801</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2">
+        <v>801</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="2">
+        <v>10</v>
+      </c>
+      <c r="K24" s="2">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -380,6 +380,14 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENEMY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -775,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1378,7 +1386,7 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2">
         <v>500</v>
@@ -1423,10 +1431,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2">
         <v>600</v>
@@ -1474,10 +1482,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="2">
         <v>700</v>
@@ -1522,10 +1530,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="2">
         <v>800</v>
@@ -1537,7 +1545,7 @@
         <v>54</v>
       </c>
       <c r="E23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -1546,16 +1554,16 @@
         <v>64</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I23" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" s="2">
         <v>99</v>
@@ -1578,14 +1586,8 @@
       <c r="R23" s="2">
         <v>1</v>
       </c>
-      <c r="S23" s="2">
-        <v>801</v>
-      </c>
-      <c r="T23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="2">
         <v>801</v>
@@ -1594,7 +1596,7 @@
         <v>65</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>1</v>
@@ -1603,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1612,7 +1614,7 @@
         <v>10000</v>
       </c>
       <c r="J24" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
         <v>10</v>
@@ -1633,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -330,6 +330,18 @@
   </si>
   <si>
     <t>大学生自用（？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_9_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYERWEAPON</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASER</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -731,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -67161,6 +67173,53 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>900</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>10</v>
+      </c>
+    </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
     </row>

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -337,11 +337,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PLAYERWEAPON</t>
+    <t>LASER</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LASER</t>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORMAL</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -743,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -67180,8 +67193,8 @@
       <c r="C30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>71</v>
+      <c r="D30" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>1</v>
@@ -67190,13 +67203,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -67205,7 +67218,7 @@
         <v>2</v>
       </c>
       <c r="L30" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M30" s="2">
         <v>-1</v>

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -46,9 +46,6 @@
     <t>parent_container</t>
   </si>
   <si>
-    <t>can_col</t>
-  </si>
-  <si>
     <t>uncol_time</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>track_start_time</t>
-  </si>
-  <si>
-    <t>damage_multi</t>
   </si>
   <si>
     <t>speed</t>
@@ -106,9 +100,6 @@
     <t>Enums.Bullet.Container</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
     <t>父物体容器</t>
   </si>
   <si>
-    <t>是否造成碰撞</t>
-  </si>
-  <si>
     <t>子弹出生不攻击时间
 （派生子弹可以用这个来无法攻击父物体）</t>
   </si>
@@ -140,10 +128,6 @@
   <si>
     <t>跟踪开始时间
 （前面X秒不跟踪）</t>
-  </si>
-  <si>
-    <t>碰撞后的伤害倍率
-（万分数）</t>
   </si>
   <si>
     <t>子弹飞行速度</t>
@@ -355,6 +339,109 @@
       </rPr>
       <t>ORMAL</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_10_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LERP</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪旋转角速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_angle_speed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_11_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_NONE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父物体偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_offset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否跟随父物体旋转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotate_by_parent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_single_attack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否参与群体碰撞检测</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有指向性碰撞
+（将会返回附着/跟踪单位/第一个碰撞的单位）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向性碰撞伤害倍率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>single_attack_multi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体碰撞伤害倍率
+（万分数）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_damage_multi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -754,33 +841,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD31"/>
+  <dimension ref="A1:WXS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="35.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="17.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="32.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="25.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="30.5" style="2" customWidth="1"/>
-    <col min="17" max="20" width="23.25" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="22.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="17.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="32.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="25.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26.75" style="2" customWidth="1"/>
+    <col min="19" max="19" width="30.5" style="2" customWidth="1"/>
+    <col min="20" max="23" width="23.25" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16191" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,190 +883,229 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16191" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16191" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16384" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16191" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="P4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="T4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="U4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Y4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="5" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16191" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -17168,248 +17296,57 @@
       <c r="WXQ5" s="2"/>
       <c r="WXR5" s="2"/>
       <c r="WXS5" s="2"/>
-      <c r="WXT5" s="2"/>
-      <c r="WXU5" s="2"/>
-      <c r="WXV5" s="2"/>
-      <c r="WXW5" s="2"/>
-      <c r="WXX5" s="2"/>
-      <c r="WXY5" s="2"/>
-      <c r="WXZ5" s="2"/>
-      <c r="WYA5" s="2"/>
-      <c r="WYB5" s="2"/>
-      <c r="WYC5" s="2"/>
-      <c r="WYD5" s="2"/>
-      <c r="WYE5" s="2"/>
-      <c r="WYF5" s="2"/>
-      <c r="WYG5" s="2"/>
-      <c r="WYH5" s="2"/>
-      <c r="WYI5" s="2"/>
-      <c r="WYJ5" s="2"/>
-      <c r="WYK5" s="2"/>
-      <c r="WYL5" s="2"/>
-      <c r="WYM5" s="2"/>
-      <c r="WYN5" s="2"/>
-      <c r="WYO5" s="2"/>
-      <c r="WYP5" s="2"/>
-      <c r="WYQ5" s="2"/>
-      <c r="WYR5" s="2"/>
-      <c r="WYS5" s="2"/>
-      <c r="WYT5" s="2"/>
-      <c r="WYU5" s="2"/>
-      <c r="WYV5" s="2"/>
-      <c r="WYW5" s="2"/>
-      <c r="WYX5" s="2"/>
-      <c r="WYY5" s="2"/>
-      <c r="WYZ5" s="2"/>
-      <c r="WZA5" s="2"/>
-      <c r="WZB5" s="2"/>
-      <c r="WZC5" s="2"/>
-      <c r="WZD5" s="2"/>
-      <c r="WZE5" s="2"/>
-      <c r="WZF5" s="2"/>
-      <c r="WZG5" s="2"/>
-      <c r="WZH5" s="2"/>
-      <c r="WZI5" s="2"/>
-      <c r="WZJ5" s="2"/>
-      <c r="WZK5" s="2"/>
-      <c r="WZL5" s="2"/>
-      <c r="WZM5" s="2"/>
-      <c r="WZN5" s="2"/>
-      <c r="WZO5" s="2"/>
-      <c r="WZP5" s="2"/>
-      <c r="WZQ5" s="2"/>
-      <c r="WZR5" s="2"/>
-      <c r="WZS5" s="2"/>
-      <c r="WZT5" s="2"/>
-      <c r="WZU5" s="2"/>
-      <c r="WZV5" s="2"/>
-      <c r="WZW5" s="2"/>
-      <c r="WZX5" s="2"/>
-      <c r="WZY5" s="2"/>
-      <c r="WZZ5" s="2"/>
-      <c r="XAA5" s="2"/>
-      <c r="XAB5" s="2"/>
-      <c r="XAC5" s="2"/>
-      <c r="XAD5" s="2"/>
-      <c r="XAE5" s="2"/>
-      <c r="XAF5" s="2"/>
-      <c r="XAG5" s="2"/>
-      <c r="XAH5" s="2"/>
-      <c r="XAI5" s="2"/>
-      <c r="XAJ5" s="2"/>
-      <c r="XAK5" s="2"/>
-      <c r="XAL5" s="2"/>
-      <c r="XAM5" s="2"/>
-      <c r="XAN5" s="2"/>
-      <c r="XAO5" s="2"/>
-      <c r="XAP5" s="2"/>
-      <c r="XAQ5" s="2"/>
-      <c r="XAR5" s="2"/>
-      <c r="XAS5" s="2"/>
-      <c r="XAT5" s="2"/>
-      <c r="XAU5" s="2"/>
-      <c r="XAV5" s="2"/>
-      <c r="XAW5" s="2"/>
-      <c r="XAX5" s="2"/>
-      <c r="XAY5" s="2"/>
-      <c r="XAZ5" s="2"/>
-      <c r="XBA5" s="2"/>
-      <c r="XBB5" s="2"/>
-      <c r="XBC5" s="2"/>
-      <c r="XBD5" s="2"/>
-      <c r="XBE5" s="2"/>
-      <c r="XBF5" s="2"/>
-      <c r="XBG5" s="2"/>
-      <c r="XBH5" s="2"/>
-      <c r="XBI5" s="2"/>
-      <c r="XBJ5" s="2"/>
-      <c r="XBK5" s="2"/>
-      <c r="XBL5" s="2"/>
-      <c r="XBM5" s="2"/>
-      <c r="XBN5" s="2"/>
-      <c r="XBO5" s="2"/>
-      <c r="XBP5" s="2"/>
-      <c r="XBQ5" s="2"/>
-      <c r="XBR5" s="2"/>
-      <c r="XBS5" s="2"/>
-      <c r="XBT5" s="2"/>
-      <c r="XBU5" s="2"/>
-      <c r="XBV5" s="2"/>
-      <c r="XBW5" s="2"/>
-      <c r="XBX5" s="2"/>
-      <c r="XBY5" s="2"/>
-      <c r="XBZ5" s="2"/>
-      <c r="XCA5" s="2"/>
-      <c r="XCB5" s="2"/>
-      <c r="XCC5" s="2"/>
-      <c r="XCD5" s="2"/>
-      <c r="XCE5" s="2"/>
-      <c r="XCF5" s="2"/>
-      <c r="XCG5" s="2"/>
-      <c r="XCH5" s="2"/>
-      <c r="XCI5" s="2"/>
-      <c r="XCJ5" s="2"/>
-      <c r="XCK5" s="2"/>
-      <c r="XCL5" s="2"/>
-      <c r="XCM5" s="2"/>
-      <c r="XCN5" s="2"/>
-      <c r="XCO5" s="2"/>
-      <c r="XCP5" s="2"/>
-      <c r="XCQ5" s="2"/>
-      <c r="XCR5" s="2"/>
-      <c r="XCS5" s="2"/>
-      <c r="XCT5" s="2"/>
-      <c r="XCU5" s="2"/>
-      <c r="XCV5" s="2"/>
-      <c r="XCW5" s="2"/>
-      <c r="XCX5" s="2"/>
-      <c r="XCY5" s="2"/>
-      <c r="XCZ5" s="2"/>
-      <c r="XDA5" s="2"/>
-      <c r="XDB5" s="2"/>
-      <c r="XDC5" s="2"/>
-      <c r="XDD5" s="2"/>
-      <c r="XDE5" s="2"/>
-      <c r="XDF5" s="2"/>
-      <c r="XDG5" s="2"/>
-      <c r="XDH5" s="2"/>
-      <c r="XDI5" s="2"/>
-      <c r="XDJ5" s="2"/>
-      <c r="XDK5" s="2"/>
-      <c r="XDL5" s="2"/>
-      <c r="XDM5" s="2"/>
-      <c r="XDN5" s="2"/>
-      <c r="XDO5" s="2"/>
-      <c r="XDP5" s="2"/>
-      <c r="XDQ5" s="2"/>
-      <c r="XDR5" s="2"/>
-      <c r="XDS5" s="2"/>
-      <c r="XDT5" s="2"/>
-      <c r="XDU5" s="2"/>
-      <c r="XDV5" s="2"/>
-      <c r="XDW5" s="2"/>
-      <c r="XDX5" s="2"/>
-      <c r="XDY5" s="2"/>
-      <c r="XDZ5" s="2"/>
-      <c r="XEA5" s="2"/>
-      <c r="XEB5" s="2"/>
-      <c r="XEC5" s="2"/>
-      <c r="XED5" s="2"/>
-      <c r="XEE5" s="2"/>
-      <c r="XEF5" s="2"/>
-      <c r="XEG5" s="2"/>
-      <c r="XEH5" s="2"/>
-      <c r="XEI5" s="2"/>
-      <c r="XEJ5" s="2"/>
-      <c r="XEK5" s="2"/>
-      <c r="XEL5" s="2"/>
-      <c r="XEM5" s="2"/>
-      <c r="XEN5" s="2"/>
-      <c r="XEO5" s="2"/>
-      <c r="XEP5" s="2"/>
-      <c r="XEQ5" s="2"/>
-      <c r="XER5" s="2"/>
-      <c r="XES5" s="2"/>
-      <c r="XET5" s="2"/>
-      <c r="XEU5" s="2"/>
-      <c r="XEV5" s="2"/>
-      <c r="XEW5" s="2"/>
-      <c r="XEX5" s="2"/>
-      <c r="XEY5" s="2"/>
-      <c r="XEZ5" s="2"/>
-      <c r="XFA5" s="2"/>
-      <c r="XFB5" s="2"/>
-      <c r="XFC5" s="2"/>
-      <c r="XFD5" s="2"/>
     </row>
-    <row r="6" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16191" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4" t="s">
-        <v>50</v>
+      <c r="J6" s="2"/>
+      <c r="K6" s="4" t="s">
+        <v>45</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="4">
         <v>10000</v>
       </c>
-      <c r="J6" s="2">
+      <c r="O6" s="2">
         <v>5</v>
       </c>
-      <c r="K6" s="2">
+      <c r="P6" s="2">
         <v>1.5</v>
       </c>
-      <c r="L6" s="2">
+      <c r="Q6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
+      <c r="R6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="2">
+      <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="T6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="2">
+      <c r="U6" s="2">
         <v>0</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -33580,201 +33517,8 @@
       <c r="WXQ6" s="2"/>
       <c r="WXR6" s="2"/>
       <c r="WXS6" s="2"/>
-      <c r="WXT6" s="2"/>
-      <c r="WXU6" s="2"/>
-      <c r="WXV6" s="2"/>
-      <c r="WXW6" s="2"/>
-      <c r="WXX6" s="2"/>
-      <c r="WXY6" s="2"/>
-      <c r="WXZ6" s="2"/>
-      <c r="WYA6" s="2"/>
-      <c r="WYB6" s="2"/>
-      <c r="WYC6" s="2"/>
-      <c r="WYD6" s="2"/>
-      <c r="WYE6" s="2"/>
-      <c r="WYF6" s="2"/>
-      <c r="WYG6" s="2"/>
-      <c r="WYH6" s="2"/>
-      <c r="WYI6" s="2"/>
-      <c r="WYJ6" s="2"/>
-      <c r="WYK6" s="2"/>
-      <c r="WYL6" s="2"/>
-      <c r="WYM6" s="2"/>
-      <c r="WYN6" s="2"/>
-      <c r="WYO6" s="2"/>
-      <c r="WYP6" s="2"/>
-      <c r="WYQ6" s="2"/>
-      <c r="WYR6" s="2"/>
-      <c r="WYS6" s="2"/>
-      <c r="WYT6" s="2"/>
-      <c r="WYU6" s="2"/>
-      <c r="WYV6" s="2"/>
-      <c r="WYW6" s="2"/>
-      <c r="WYX6" s="2"/>
-      <c r="WYY6" s="2"/>
-      <c r="WYZ6" s="2"/>
-      <c r="WZA6" s="2"/>
-      <c r="WZB6" s="2"/>
-      <c r="WZC6" s="2"/>
-      <c r="WZD6" s="2"/>
-      <c r="WZE6" s="2"/>
-      <c r="WZF6" s="2"/>
-      <c r="WZG6" s="2"/>
-      <c r="WZH6" s="2"/>
-      <c r="WZI6" s="2"/>
-      <c r="WZJ6" s="2"/>
-      <c r="WZK6" s="2"/>
-      <c r="WZL6" s="2"/>
-      <c r="WZM6" s="2"/>
-      <c r="WZN6" s="2"/>
-      <c r="WZO6" s="2"/>
-      <c r="WZP6" s="2"/>
-      <c r="WZQ6" s="2"/>
-      <c r="WZR6" s="2"/>
-      <c r="WZS6" s="2"/>
-      <c r="WZT6" s="2"/>
-      <c r="WZU6" s="2"/>
-      <c r="WZV6" s="2"/>
-      <c r="WZW6" s="2"/>
-      <c r="WZX6" s="2"/>
-      <c r="WZY6" s="2"/>
-      <c r="WZZ6" s="2"/>
-      <c r="XAA6" s="2"/>
-      <c r="XAB6" s="2"/>
-      <c r="XAC6" s="2"/>
-      <c r="XAD6" s="2"/>
-      <c r="XAE6" s="2"/>
-      <c r="XAF6" s="2"/>
-      <c r="XAG6" s="2"/>
-      <c r="XAH6" s="2"/>
-      <c r="XAI6" s="2"/>
-      <c r="XAJ6" s="2"/>
-      <c r="XAK6" s="2"/>
-      <c r="XAL6" s="2"/>
-      <c r="XAM6" s="2"/>
-      <c r="XAN6" s="2"/>
-      <c r="XAO6" s="2"/>
-      <c r="XAP6" s="2"/>
-      <c r="XAQ6" s="2"/>
-      <c r="XAR6" s="2"/>
-      <c r="XAS6" s="2"/>
-      <c r="XAT6" s="2"/>
-      <c r="XAU6" s="2"/>
-      <c r="XAV6" s="2"/>
-      <c r="XAW6" s="2"/>
-      <c r="XAX6" s="2"/>
-      <c r="XAY6" s="2"/>
-      <c r="XAZ6" s="2"/>
-      <c r="XBA6" s="2"/>
-      <c r="XBB6" s="2"/>
-      <c r="XBC6" s="2"/>
-      <c r="XBD6" s="2"/>
-      <c r="XBE6" s="2"/>
-      <c r="XBF6" s="2"/>
-      <c r="XBG6" s="2"/>
-      <c r="XBH6" s="2"/>
-      <c r="XBI6" s="2"/>
-      <c r="XBJ6" s="2"/>
-      <c r="XBK6" s="2"/>
-      <c r="XBL6" s="2"/>
-      <c r="XBM6" s="2"/>
-      <c r="XBN6" s="2"/>
-      <c r="XBO6" s="2"/>
-      <c r="XBP6" s="2"/>
-      <c r="XBQ6" s="2"/>
-      <c r="XBR6" s="2"/>
-      <c r="XBS6" s="2"/>
-      <c r="XBT6" s="2"/>
-      <c r="XBU6" s="2"/>
-      <c r="XBV6" s="2"/>
-      <c r="XBW6" s="2"/>
-      <c r="XBX6" s="2"/>
-      <c r="XBY6" s="2"/>
-      <c r="XBZ6" s="2"/>
-      <c r="XCA6" s="2"/>
-      <c r="XCB6" s="2"/>
-      <c r="XCC6" s="2"/>
-      <c r="XCD6" s="2"/>
-      <c r="XCE6" s="2"/>
-      <c r="XCF6" s="2"/>
-      <c r="XCG6" s="2"/>
-      <c r="XCH6" s="2"/>
-      <c r="XCI6" s="2"/>
-      <c r="XCJ6" s="2"/>
-      <c r="XCK6" s="2"/>
-      <c r="XCL6" s="2"/>
-      <c r="XCM6" s="2"/>
-      <c r="XCN6" s="2"/>
-      <c r="XCO6" s="2"/>
-      <c r="XCP6" s="2"/>
-      <c r="XCQ6" s="2"/>
-      <c r="XCR6" s="2"/>
-      <c r="XCS6" s="2"/>
-      <c r="XCT6" s="2"/>
-      <c r="XCU6" s="2"/>
-      <c r="XCV6" s="2"/>
-      <c r="XCW6" s="2"/>
-      <c r="XCX6" s="2"/>
-      <c r="XCY6" s="2"/>
-      <c r="XCZ6" s="2"/>
-      <c r="XDA6" s="2"/>
-      <c r="XDB6" s="2"/>
-      <c r="XDC6" s="2"/>
-      <c r="XDD6" s="2"/>
-      <c r="XDE6" s="2"/>
-      <c r="XDF6" s="2"/>
-      <c r="XDG6" s="2"/>
-      <c r="XDH6" s="2"/>
-      <c r="XDI6" s="2"/>
-      <c r="XDJ6" s="2"/>
-      <c r="XDK6" s="2"/>
-      <c r="XDL6" s="2"/>
-      <c r="XDM6" s="2"/>
-      <c r="XDN6" s="2"/>
-      <c r="XDO6" s="2"/>
-      <c r="XDP6" s="2"/>
-      <c r="XDQ6" s="2"/>
-      <c r="XDR6" s="2"/>
-      <c r="XDS6" s="2"/>
-      <c r="XDT6" s="2"/>
-      <c r="XDU6" s="2"/>
-      <c r="XDV6" s="2"/>
-      <c r="XDW6" s="2"/>
-      <c r="XDX6" s="2"/>
-      <c r="XDY6" s="2"/>
-      <c r="XDZ6" s="2"/>
-      <c r="XEA6" s="2"/>
-      <c r="XEB6" s="2"/>
-      <c r="XEC6" s="2"/>
-      <c r="XED6" s="2"/>
-      <c r="XEE6" s="2"/>
-      <c r="XEF6" s="2"/>
-      <c r="XEG6" s="2"/>
-      <c r="XEH6" s="2"/>
-      <c r="XEI6" s="2"/>
-      <c r="XEJ6" s="2"/>
-      <c r="XEK6" s="2"/>
-      <c r="XEL6" s="2"/>
-      <c r="XEM6" s="2"/>
-      <c r="XEN6" s="2"/>
-      <c r="XEO6" s="2"/>
-      <c r="XEP6" s="2"/>
-      <c r="XEQ6" s="2"/>
-      <c r="XER6" s="2"/>
-      <c r="XES6" s="2"/>
-      <c r="XET6" s="2"/>
-      <c r="XEU6" s="2"/>
-      <c r="XEV6" s="2"/>
-      <c r="XEW6" s="2"/>
-      <c r="XEX6" s="2"/>
-      <c r="XEY6" s="2"/>
-      <c r="XEZ6" s="2"/>
-      <c r="XFA6" s="2"/>
-      <c r="XFB6" s="2"/>
-      <c r="XFC6" s="2"/>
-      <c r="XFD6" s="2"/>
     </row>
-    <row r="7" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16191" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -49966,206 +49710,13 @@
       <c r="WXQ7" s="2"/>
       <c r="WXR7" s="2"/>
       <c r="WXS7" s="2"/>
-      <c r="WXT7" s="2"/>
-      <c r="WXU7" s="2"/>
-      <c r="WXV7" s="2"/>
-      <c r="WXW7" s="2"/>
-      <c r="WXX7" s="2"/>
-      <c r="WXY7" s="2"/>
-      <c r="WXZ7" s="2"/>
-      <c r="WYA7" s="2"/>
-      <c r="WYB7" s="2"/>
-      <c r="WYC7" s="2"/>
-      <c r="WYD7" s="2"/>
-      <c r="WYE7" s="2"/>
-      <c r="WYF7" s="2"/>
-      <c r="WYG7" s="2"/>
-      <c r="WYH7" s="2"/>
-      <c r="WYI7" s="2"/>
-      <c r="WYJ7" s="2"/>
-      <c r="WYK7" s="2"/>
-      <c r="WYL7" s="2"/>
-      <c r="WYM7" s="2"/>
-      <c r="WYN7" s="2"/>
-      <c r="WYO7" s="2"/>
-      <c r="WYP7" s="2"/>
-      <c r="WYQ7" s="2"/>
-      <c r="WYR7" s="2"/>
-      <c r="WYS7" s="2"/>
-      <c r="WYT7" s="2"/>
-      <c r="WYU7" s="2"/>
-      <c r="WYV7" s="2"/>
-      <c r="WYW7" s="2"/>
-      <c r="WYX7" s="2"/>
-      <c r="WYY7" s="2"/>
-      <c r="WYZ7" s="2"/>
-      <c r="WZA7" s="2"/>
-      <c r="WZB7" s="2"/>
-      <c r="WZC7" s="2"/>
-      <c r="WZD7" s="2"/>
-      <c r="WZE7" s="2"/>
-      <c r="WZF7" s="2"/>
-      <c r="WZG7" s="2"/>
-      <c r="WZH7" s="2"/>
-      <c r="WZI7" s="2"/>
-      <c r="WZJ7" s="2"/>
-      <c r="WZK7" s="2"/>
-      <c r="WZL7" s="2"/>
-      <c r="WZM7" s="2"/>
-      <c r="WZN7" s="2"/>
-      <c r="WZO7" s="2"/>
-      <c r="WZP7" s="2"/>
-      <c r="WZQ7" s="2"/>
-      <c r="WZR7" s="2"/>
-      <c r="WZS7" s="2"/>
-      <c r="WZT7" s="2"/>
-      <c r="WZU7" s="2"/>
-      <c r="WZV7" s="2"/>
-      <c r="WZW7" s="2"/>
-      <c r="WZX7" s="2"/>
-      <c r="WZY7" s="2"/>
-      <c r="WZZ7" s="2"/>
-      <c r="XAA7" s="2"/>
-      <c r="XAB7" s="2"/>
-      <c r="XAC7" s="2"/>
-      <c r="XAD7" s="2"/>
-      <c r="XAE7" s="2"/>
-      <c r="XAF7" s="2"/>
-      <c r="XAG7" s="2"/>
-      <c r="XAH7" s="2"/>
-      <c r="XAI7" s="2"/>
-      <c r="XAJ7" s="2"/>
-      <c r="XAK7" s="2"/>
-      <c r="XAL7" s="2"/>
-      <c r="XAM7" s="2"/>
-      <c r="XAN7" s="2"/>
-      <c r="XAO7" s="2"/>
-      <c r="XAP7" s="2"/>
-      <c r="XAQ7" s="2"/>
-      <c r="XAR7" s="2"/>
-      <c r="XAS7" s="2"/>
-      <c r="XAT7" s="2"/>
-      <c r="XAU7" s="2"/>
-      <c r="XAV7" s="2"/>
-      <c r="XAW7" s="2"/>
-      <c r="XAX7" s="2"/>
-      <c r="XAY7" s="2"/>
-      <c r="XAZ7" s="2"/>
-      <c r="XBA7" s="2"/>
-      <c r="XBB7" s="2"/>
-      <c r="XBC7" s="2"/>
-      <c r="XBD7" s="2"/>
-      <c r="XBE7" s="2"/>
-      <c r="XBF7" s="2"/>
-      <c r="XBG7" s="2"/>
-      <c r="XBH7" s="2"/>
-      <c r="XBI7" s="2"/>
-      <c r="XBJ7" s="2"/>
-      <c r="XBK7" s="2"/>
-      <c r="XBL7" s="2"/>
-      <c r="XBM7" s="2"/>
-      <c r="XBN7" s="2"/>
-      <c r="XBO7" s="2"/>
-      <c r="XBP7" s="2"/>
-      <c r="XBQ7" s="2"/>
-      <c r="XBR7" s="2"/>
-      <c r="XBS7" s="2"/>
-      <c r="XBT7" s="2"/>
-      <c r="XBU7" s="2"/>
-      <c r="XBV7" s="2"/>
-      <c r="XBW7" s="2"/>
-      <c r="XBX7" s="2"/>
-      <c r="XBY7" s="2"/>
-      <c r="XBZ7" s="2"/>
-      <c r="XCA7" s="2"/>
-      <c r="XCB7" s="2"/>
-      <c r="XCC7" s="2"/>
-      <c r="XCD7" s="2"/>
-      <c r="XCE7" s="2"/>
-      <c r="XCF7" s="2"/>
-      <c r="XCG7" s="2"/>
-      <c r="XCH7" s="2"/>
-      <c r="XCI7" s="2"/>
-      <c r="XCJ7" s="2"/>
-      <c r="XCK7" s="2"/>
-      <c r="XCL7" s="2"/>
-      <c r="XCM7" s="2"/>
-      <c r="XCN7" s="2"/>
-      <c r="XCO7" s="2"/>
-      <c r="XCP7" s="2"/>
-      <c r="XCQ7" s="2"/>
-      <c r="XCR7" s="2"/>
-      <c r="XCS7" s="2"/>
-      <c r="XCT7" s="2"/>
-      <c r="XCU7" s="2"/>
-      <c r="XCV7" s="2"/>
-      <c r="XCW7" s="2"/>
-      <c r="XCX7" s="2"/>
-      <c r="XCY7" s="2"/>
-      <c r="XCZ7" s="2"/>
-      <c r="XDA7" s="2"/>
-      <c r="XDB7" s="2"/>
-      <c r="XDC7" s="2"/>
-      <c r="XDD7" s="2"/>
-      <c r="XDE7" s="2"/>
-      <c r="XDF7" s="2"/>
-      <c r="XDG7" s="2"/>
-      <c r="XDH7" s="2"/>
-      <c r="XDI7" s="2"/>
-      <c r="XDJ7" s="2"/>
-      <c r="XDK7" s="2"/>
-      <c r="XDL7" s="2"/>
-      <c r="XDM7" s="2"/>
-      <c r="XDN7" s="2"/>
-      <c r="XDO7" s="2"/>
-      <c r="XDP7" s="2"/>
-      <c r="XDQ7" s="2"/>
-      <c r="XDR7" s="2"/>
-      <c r="XDS7" s="2"/>
-      <c r="XDT7" s="2"/>
-      <c r="XDU7" s="2"/>
-      <c r="XDV7" s="2"/>
-      <c r="XDW7" s="2"/>
-      <c r="XDX7" s="2"/>
-      <c r="XDY7" s="2"/>
-      <c r="XDZ7" s="2"/>
-      <c r="XEA7" s="2"/>
-      <c r="XEB7" s="2"/>
-      <c r="XEC7" s="2"/>
-      <c r="XED7" s="2"/>
-      <c r="XEE7" s="2"/>
-      <c r="XEF7" s="2"/>
-      <c r="XEG7" s="2"/>
-      <c r="XEH7" s="2"/>
-      <c r="XEI7" s="2"/>
-      <c r="XEJ7" s="2"/>
-      <c r="XEK7" s="2"/>
-      <c r="XEL7" s="2"/>
-      <c r="XEM7" s="2"/>
-      <c r="XEN7" s="2"/>
-      <c r="XEO7" s="2"/>
-      <c r="XEP7" s="2"/>
-      <c r="XEQ7" s="2"/>
-      <c r="XER7" s="2"/>
-      <c r="XES7" s="2"/>
-      <c r="XET7" s="2"/>
-      <c r="XEU7" s="2"/>
-      <c r="XEV7" s="2"/>
-      <c r="XEW7" s="2"/>
-      <c r="XEX7" s="2"/>
-      <c r="XEY7" s="2"/>
-      <c r="XEZ7" s="2"/>
-      <c r="XFA7" s="2"/>
-      <c r="XFB7" s="2"/>
-      <c r="XFC7" s="2"/>
-      <c r="XFD7" s="2"/>
     </row>
-    <row r="8" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16191" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -66356,825 +65907,695 @@
       <c r="WXQ8" s="2"/>
       <c r="WXR8" s="2"/>
       <c r="WXS8" s="2"/>
-      <c r="WXT8" s="2"/>
-      <c r="WXU8" s="2"/>
-      <c r="WXV8" s="2"/>
-      <c r="WXW8" s="2"/>
-      <c r="WXX8" s="2"/>
-      <c r="WXY8" s="2"/>
-      <c r="WXZ8" s="2"/>
-      <c r="WYA8" s="2"/>
-      <c r="WYB8" s="2"/>
-      <c r="WYC8" s="2"/>
-      <c r="WYD8" s="2"/>
-      <c r="WYE8" s="2"/>
-      <c r="WYF8" s="2"/>
-      <c r="WYG8" s="2"/>
-      <c r="WYH8" s="2"/>
-      <c r="WYI8" s="2"/>
-      <c r="WYJ8" s="2"/>
-      <c r="WYK8" s="2"/>
-      <c r="WYL8" s="2"/>
-      <c r="WYM8" s="2"/>
-      <c r="WYN8" s="2"/>
-      <c r="WYO8" s="2"/>
-      <c r="WYP8" s="2"/>
-      <c r="WYQ8" s="2"/>
-      <c r="WYR8" s="2"/>
-      <c r="WYS8" s="2"/>
-      <c r="WYT8" s="2"/>
-      <c r="WYU8" s="2"/>
-      <c r="WYV8" s="2"/>
-      <c r="WYW8" s="2"/>
-      <c r="WYX8" s="2"/>
-      <c r="WYY8" s="2"/>
-      <c r="WYZ8" s="2"/>
-      <c r="WZA8" s="2"/>
-      <c r="WZB8" s="2"/>
-      <c r="WZC8" s="2"/>
-      <c r="WZD8" s="2"/>
-      <c r="WZE8" s="2"/>
-      <c r="WZF8" s="2"/>
-      <c r="WZG8" s="2"/>
-      <c r="WZH8" s="2"/>
-      <c r="WZI8" s="2"/>
-      <c r="WZJ8" s="2"/>
-      <c r="WZK8" s="2"/>
-      <c r="WZL8" s="2"/>
-      <c r="WZM8" s="2"/>
-      <c r="WZN8" s="2"/>
-      <c r="WZO8" s="2"/>
-      <c r="WZP8" s="2"/>
-      <c r="WZQ8" s="2"/>
-      <c r="WZR8" s="2"/>
-      <c r="WZS8" s="2"/>
-      <c r="WZT8" s="2"/>
-      <c r="WZU8" s="2"/>
-      <c r="WZV8" s="2"/>
-      <c r="WZW8" s="2"/>
-      <c r="WZX8" s="2"/>
-      <c r="WZY8" s="2"/>
-      <c r="WZZ8" s="2"/>
-      <c r="XAA8" s="2"/>
-      <c r="XAB8" s="2"/>
-      <c r="XAC8" s="2"/>
-      <c r="XAD8" s="2"/>
-      <c r="XAE8" s="2"/>
-      <c r="XAF8" s="2"/>
-      <c r="XAG8" s="2"/>
-      <c r="XAH8" s="2"/>
-      <c r="XAI8" s="2"/>
-      <c r="XAJ8" s="2"/>
-      <c r="XAK8" s="2"/>
-      <c r="XAL8" s="2"/>
-      <c r="XAM8" s="2"/>
-      <c r="XAN8" s="2"/>
-      <c r="XAO8" s="2"/>
-      <c r="XAP8" s="2"/>
-      <c r="XAQ8" s="2"/>
-      <c r="XAR8" s="2"/>
-      <c r="XAS8" s="2"/>
-      <c r="XAT8" s="2"/>
-      <c r="XAU8" s="2"/>
-      <c r="XAV8" s="2"/>
-      <c r="XAW8" s="2"/>
-      <c r="XAX8" s="2"/>
-      <c r="XAY8" s="2"/>
-      <c r="XAZ8" s="2"/>
-      <c r="XBA8" s="2"/>
-      <c r="XBB8" s="2"/>
-      <c r="XBC8" s="2"/>
-      <c r="XBD8" s="2"/>
-      <c r="XBE8" s="2"/>
-      <c r="XBF8" s="2"/>
-      <c r="XBG8" s="2"/>
-      <c r="XBH8" s="2"/>
-      <c r="XBI8" s="2"/>
-      <c r="XBJ8" s="2"/>
-      <c r="XBK8" s="2"/>
-      <c r="XBL8" s="2"/>
-      <c r="XBM8" s="2"/>
-      <c r="XBN8" s="2"/>
-      <c r="XBO8" s="2"/>
-      <c r="XBP8" s="2"/>
-      <c r="XBQ8" s="2"/>
-      <c r="XBR8" s="2"/>
-      <c r="XBS8" s="2"/>
-      <c r="XBT8" s="2"/>
-      <c r="XBU8" s="2"/>
-      <c r="XBV8" s="2"/>
-      <c r="XBW8" s="2"/>
-      <c r="XBX8" s="2"/>
-      <c r="XBY8" s="2"/>
-      <c r="XBZ8" s="2"/>
-      <c r="XCA8" s="2"/>
-      <c r="XCB8" s="2"/>
-      <c r="XCC8" s="2"/>
-      <c r="XCD8" s="2"/>
-      <c r="XCE8" s="2"/>
-      <c r="XCF8" s="2"/>
-      <c r="XCG8" s="2"/>
-      <c r="XCH8" s="2"/>
-      <c r="XCI8" s="2"/>
-      <c r="XCJ8" s="2"/>
-      <c r="XCK8" s="2"/>
-      <c r="XCL8" s="2"/>
-      <c r="XCM8" s="2"/>
-      <c r="XCN8" s="2"/>
-      <c r="XCO8" s="2"/>
-      <c r="XCP8" s="2"/>
-      <c r="XCQ8" s="2"/>
-      <c r="XCR8" s="2"/>
-      <c r="XCS8" s="2"/>
-      <c r="XCT8" s="2"/>
-      <c r="XCU8" s="2"/>
-      <c r="XCV8" s="2"/>
-      <c r="XCW8" s="2"/>
-      <c r="XCX8" s="2"/>
-      <c r="XCY8" s="2"/>
-      <c r="XCZ8" s="2"/>
-      <c r="XDA8" s="2"/>
-      <c r="XDB8" s="2"/>
-      <c r="XDC8" s="2"/>
-      <c r="XDD8" s="2"/>
-      <c r="XDE8" s="2"/>
-      <c r="XDF8" s="2"/>
-      <c r="XDG8" s="2"/>
-      <c r="XDH8" s="2"/>
-      <c r="XDI8" s="2"/>
-      <c r="XDJ8" s="2"/>
-      <c r="XDK8" s="2"/>
-      <c r="XDL8" s="2"/>
-      <c r="XDM8" s="2"/>
-      <c r="XDN8" s="2"/>
-      <c r="XDO8" s="2"/>
-      <c r="XDP8" s="2"/>
-      <c r="XDQ8" s="2"/>
-      <c r="XDR8" s="2"/>
-      <c r="XDS8" s="2"/>
-      <c r="XDT8" s="2"/>
-      <c r="XDU8" s="2"/>
-      <c r="XDV8" s="2"/>
-      <c r="XDW8" s="2"/>
-      <c r="XDX8" s="2"/>
-      <c r="XDY8" s="2"/>
-      <c r="XDZ8" s="2"/>
-      <c r="XEA8" s="2"/>
-      <c r="XEB8" s="2"/>
-      <c r="XEC8" s="2"/>
-      <c r="XED8" s="2"/>
-      <c r="XEE8" s="2"/>
-      <c r="XEF8" s="2"/>
-      <c r="XEG8" s="2"/>
-      <c r="XEH8" s="2"/>
-      <c r="XEI8" s="2"/>
-      <c r="XEJ8" s="2"/>
-      <c r="XEK8" s="2"/>
-      <c r="XEL8" s="2"/>
-      <c r="XEM8" s="2"/>
-      <c r="XEN8" s="2"/>
-      <c r="XEO8" s="2"/>
-      <c r="XEP8" s="2"/>
-      <c r="XEQ8" s="2"/>
-      <c r="XER8" s="2"/>
-      <c r="XES8" s="2"/>
-      <c r="XET8" s="2"/>
-      <c r="XEU8" s="2"/>
-      <c r="XEV8" s="2"/>
-      <c r="XEW8" s="2"/>
-      <c r="XEX8" s="2"/>
-      <c r="XEY8" s="2"/>
-      <c r="XEZ8" s="2"/>
-      <c r="XFA8" s="2"/>
-      <c r="XFB8" s="2"/>
-      <c r="XFC8" s="2"/>
-      <c r="XFD8" s="2"/>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16191" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
-      <c r="E9" s="2" t="b">
+      <c r="E9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>50</v>
+      <c r="K9" s="4" t="s">
+        <v>45</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="L9" s="4"/>
+      <c r="N9" s="4">
         <v>10000</v>
       </c>
-      <c r="J9" s="2">
+      <c r="O9" s="2">
         <v>6</v>
       </c>
-      <c r="K9" s="2">
+      <c r="P9" s="2">
         <v>3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="Q9" s="2">
         <v>99</v>
       </c>
-      <c r="M9" s="2">
+      <c r="R9" s="2">
         <v>1</v>
       </c>
-      <c r="N9" s="4">
+      <c r="S9" s="4">
         <v>6000</v>
       </c>
-      <c r="O9" s="2">
+      <c r="T9" s="2">
         <v>0.4</v>
       </c>
-      <c r="P9" s="2">
+      <c r="U9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16191" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>200</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="b">
         <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>10000</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="2">
-        <v>0.5</v>
+      <c r="K11" s="4" t="s">
+        <v>45</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
         <v>5</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="V11" s="2">
         <v>201</v>
       </c>
-      <c r="R11" s="2">
+      <c r="W11" s="2">
         <v>1</v>
       </c>
-      <c r="S11" s="2">
+      <c r="X11" s="2">
         <v>201</v>
       </c>
-      <c r="T11" s="2">
+      <c r="Y11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16191" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>201</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>10000</v>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="4">
-        <v>6000</v>
+      <c r="N12" s="2">
+        <v>10000</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="4">
+        <v>6000</v>
+      </c>
+      <c r="T12" s="2">
         <v>0</v>
       </c>
-      <c r="S12" s="2">
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
         <v>202</v>
       </c>
-      <c r="T12" s="2">
+      <c r="Y12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16191" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="2">
         <v>202</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="b">
         <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>10000</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="2">
-        <v>0.5</v>
+      <c r="N13" s="2">
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16191" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16191" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>300</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
-      <c r="E15" s="2" t="b">
+      <c r="E15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>56</v>
+      <c r="K15" s="4" t="s">
+        <v>51</v>
       </c>
-      <c r="H15" s="4">
+      <c r="L15" s="4">
         <v>0.3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="2">
+      <c r="O15" s="2">
         <v>2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="P15" s="2">
         <v>2</v>
       </c>
-      <c r="L15" s="2">
+      <c r="Q15" s="2">
         <v>99</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4">
-        <v>6000</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>301</v>
       </c>
       <c r="R15" s="2">
         <v>1</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="4">
+        <v>6000</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>5</v>
+      </c>
+      <c r="V15" s="2">
         <v>301</v>
       </c>
-      <c r="T15" s="2">
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16191" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>301</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
-      <c r="E16" s="2" t="b">
+      <c r="E16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4">
-        <v>10000</v>
+      <c r="I16" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="2">
-        <v>1</v>
+      <c r="K16" s="4" t="s">
+        <v>45</v>
       </c>
-      <c r="L16" s="2">
-        <v>99</v>
-      </c>
-      <c r="M16" s="2">
-        <v>-1</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="N16" s="4">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>99</v>
+      </c>
+      <c r="R16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="4">
+        <v>6000</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2">
         <v>400</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
-      <c r="E18" s="2" t="b">
+      <c r="E18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>59</v>
+      <c r="K18" s="4" t="s">
+        <v>54</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
+      <c r="L18" s="4"/>
+      <c r="N18" s="4">
         <v>10000</v>
       </c>
-      <c r="J18" s="2">
+      <c r="O18" s="2">
         <v>5</v>
       </c>
-      <c r="K18" s="2">
+      <c r="P18" s="2">
         <v>3</v>
       </c>
-      <c r="L18" s="2">
+      <c r="Q18" s="2">
         <v>99</v>
       </c>
-      <c r="M18" s="2">
+      <c r="R18" s="2">
         <v>1</v>
       </c>
-      <c r="N18" s="4">
+      <c r="S18" s="4">
         <v>6000</v>
       </c>
-      <c r="O18" s="2">
+      <c r="T18" s="2">
         <v>0.2</v>
       </c>
-      <c r="P18" s="2">
+      <c r="U18" s="2">
         <v>-3</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="V18" s="2">
         <v>401</v>
       </c>
-      <c r="R18" s="2">
+      <c r="W18" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2">
         <v>401</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
-      <c r="E19" s="2" t="b">
+      <c r="E19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
         <v>0.2</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>59</v>
+      <c r="K19" s="4" t="s">
+        <v>54</v>
       </c>
-      <c r="I19" s="4">
+      <c r="N19" s="4">
         <v>2000</v>
       </c>
-      <c r="J19" s="2">
+      <c r="O19" s="2">
         <v>5</v>
       </c>
-      <c r="K19" s="2">
+      <c r="P19" s="2">
         <v>3</v>
       </c>
-      <c r="L19" s="2">
+      <c r="Q19" s="2">
         <v>99</v>
       </c>
-      <c r="M19" s="2">
+      <c r="R19" s="2">
         <v>1</v>
       </c>
-      <c r="N19" s="4">
+      <c r="S19" s="4">
         <v>6000</v>
       </c>
-      <c r="O19" s="2">
+      <c r="T19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2">
         <v>500</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
-      <c r="E21" s="2" t="b">
+      <c r="E21" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="2">
-        <v>10000</v>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="2">
-        <v>100</v>
+      <c r="K21" s="4" t="s">
+        <v>45</v>
       </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N21" s="4">
-        <v>6000</v>
+      <c r="N21" s="2">
+        <v>10000</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>6000</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2">
         <v>600</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
-      <c r="E23" s="2" t="b">
+      <c r="E23" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>50</v>
+      <c r="K23" s="4" t="s">
+        <v>45</v>
       </c>
-      <c r="H23" s="2">
+      <c r="L23" s="2">
         <v>0.3</v>
       </c>
-      <c r="I23" s="2">
+      <c r="M23" s="2">
+        <v>5</v>
+      </c>
+      <c r="N23" s="2">
         <v>10000</v>
       </c>
-      <c r="J23" s="2">
+      <c r="O23" s="2">
         <v>3</v>
       </c>
-      <c r="K23" s="2">
+      <c r="P23" s="2">
         <v>3</v>
       </c>
-      <c r="L23" s="2">
+      <c r="Q23" s="2">
         <v>1</v>
       </c>
-      <c r="M23" s="2">
+      <c r="R23" s="2">
         <v>-1</v>
       </c>
-      <c r="N23" s="4">
+      <c r="S23" s="4">
         <v>6000</v>
       </c>
-      <c r="O23" s="2">
+      <c r="T23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" s="2">
+      <c r="U23" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2">
         <v>700</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
-      <c r="E25" s="2" t="b">
+      <c r="E25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>50</v>
+      <c r="K25" s="4" t="s">
+        <v>45</v>
       </c>
-      <c r="I25" s="2">
+      <c r="N25" s="2">
         <v>10000</v>
       </c>
-      <c r="J25" s="2">
+      <c r="O25" s="2">
         <v>4</v>
       </c>
-      <c r="K25" s="2">
+      <c r="P25" s="2">
         <v>4</v>
       </c>
-      <c r="L25" s="2">
+      <c r="Q25" s="2">
         <v>99</v>
       </c>
-      <c r="M25" s="2">
+      <c r="R25" s="2">
         <v>-1</v>
       </c>
-      <c r="N25" s="2">
+      <c r="S25" s="2">
         <v>6000</v>
       </c>
-      <c r="O25" s="2">
+      <c r="T25" s="2">
         <v>0</v>
       </c>
-      <c r="P25" s="2">
+      <c r="U25" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>800</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
-      <c r="E27" s="2" t="b">
+      <c r="E27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>65</v>
+      <c r="K27" s="4" t="s">
+        <v>60</v>
       </c>
-      <c r="H27" s="2">
+      <c r="L27" s="2">
         <v>0.5</v>
       </c>
-      <c r="I27" s="2">
+      <c r="M27" s="2">
+        <v>5</v>
+      </c>
+      <c r="N27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="2">
+      <c r="O27" s="2">
         <v>2</v>
       </c>
-      <c r="K27" s="2">
+      <c r="P27" s="2">
         <v>4</v>
       </c>
-      <c r="L27" s="2">
+      <c r="Q27" s="2">
         <v>99</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <v>6000</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P27" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>801</v>
       </c>
       <c r="R27" s="2">
         <v>1</v>
       </c>
+      <c r="S27" s="2">
+        <v>6000</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U27" s="2">
+        <v>10</v>
+      </c>
+      <c r="V27" s="2">
+        <v>801</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2">
         <v>801</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
-      <c r="E28" s="2" t="b">
+      <c r="E28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F28" s="2">
-        <v>0</v>
+      <c r="G28" s="4" t="b">
+        <v>1</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>59</v>
+      <c r="H28" s="4">
+        <v>10000</v>
       </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>10000</v>
+      <c r="I28" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="2">
-        <v>10</v>
+      <c r="K28" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="L28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M28" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
         <v>10000</v>
@@ -67183,58 +66604,270 @@
         <v>0</v>
       </c>
       <c r="P28" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S28" s="2">
+        <v>10000</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>900</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
-      <c r="E30" s="2" t="b">
+      <c r="E30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="2">
-        <v>0</v>
+      <c r="G30" s="4" t="b">
+        <v>1</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>71</v>
+      <c r="H30" s="4">
+        <v>10000</v>
       </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2000</v>
+      <c r="I30" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="2">
-        <v>2</v>
+      <c r="K30" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="L30" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N30" s="2">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="O30" s="2">
         <v>0</v>
       </c>
       <c r="P30" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>100</v>
+      </c>
+      <c r="N32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="O32" s="2">
+        <v>12</v>
+      </c>
+      <c r="P32" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S32" s="2">
+        <v>6000</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U32" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M34" s="2">
+        <v>50</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>5</v>
+      </c>
+      <c r="P34" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>99</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U34" s="2">
+        <v>10</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1101</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2">
+        <v>1101</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/_ConfigExcels/Datas/weapon_bullet.xlsx
+++ b/_ConfigExcels/Datas/weapon_bullet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>##var</t>
   </si>
@@ -419,11 +419,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>是否有指向性碰撞
-（将会返回附着/跟踪单位/第一个碰撞的单位）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>指向性碰撞伤害倍率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -442,6 +437,19 @@
   </si>
   <si>
     <t>group_damage_multi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_12_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Player_12_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有指向性碰撞
+（无视是否相交，返回附着/跟踪单位/第一个碰撞的单位）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -841,10 +849,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WXS35"/>
+  <dimension ref="A1:WXS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="J17" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -892,7 +903,7 @@
         <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -907,7 +918,7 @@
         <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>7</v>
@@ -966,7 +977,7 @@
         <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>22</v>
@@ -1043,10 +1054,10 @@
         <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>83</v>
@@ -1064,7 +1075,7 @@
         <v>70</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>31</v>
@@ -66869,6 +66880,113 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="N37" s="4">
+        <v>2000</v>
+      </c>
+      <c r="O37" s="2">
+        <v>5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>99</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4">
+        <v>6000</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>10</v>
+      </c>
+      <c r="V37" s="2">
+        <v>1201</v>
+      </c>
+      <c r="W37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2">
+        <v>1201</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" s="4">
+        <v>5000</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S38" s="4">
+        <v>6000</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
